--- a/Sanity_TestCases_07.06.xlsx
+++ b/Sanity_TestCases_07.06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9675" tabRatio="968" activeTab="1"/>
+    <workbookView windowWidth="21045" windowHeight="9675" tabRatio="968" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="279">
   <si>
     <t>S/No</t>
   </si>
@@ -174,6 +174,12 @@
     <t>NSE-BL</t>
   </si>
   <si>
+    <t>Not Tested</t>
+  </si>
+  <si>
+    <t>Order with invalid atrribute rejected by system</t>
+  </si>
+  <si>
     <t>NSE-BE</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
     <t>To verify Sell Order</t>
   </si>
   <si>
+    <t>Security not allow to test in this market</t>
+  </si>
+  <si>
     <t>BSE-EQ</t>
   </si>
   <si>
@@ -198,7 +207,7 @@
     <t>Margin</t>
   </si>
   <si>
-    <t>Not Tested</t>
+    <t>Transection not allowed in current instrument state</t>
   </si>
   <si>
     <t>OPTSTK</t>
@@ -248,6 +257,9 @@
 </t>
   </si>
   <si>
+    <t>Index NA</t>
+  </si>
+  <si>
     <t>FUTCUR</t>
   </si>
   <si>
@@ -282,12 +294,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Scrip : GBPINR 27MAY95.0000 CE (1000)
-Qty :10
-Price: Mkt
-</t>
-  </si>
-  <si>
     <t>Scrip :TCS
 Qty :1000
 Price: 2500
@@ -295,6 +301,9 @@
   </si>
   <si>
     <t>System should allow to place  SL order and display in order book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned basket  for entity account-A103403 across exchange across segment across product  </t>
   </si>
   <si>
     <t>Scrip :TCS
@@ -1783,10 +1792,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1841,6 +1850,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1848,15 +1864,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,21 +1889,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1918,7 +1918,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1940,45 +1985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2005,7 +2014,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,25 +2170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2047,145 +2182,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2324,16 +2333,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2362,31 +2371,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2406,17 +2401,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2425,13 +2434,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2443,130 +2452,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3283,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>35</v>
@@ -3295,22 +3304,22 @@
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="22"/>
@@ -3326,34 +3335,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="22"/>
@@ -3369,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>35</v>
@@ -3381,22 +3390,22 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="22"/>
@@ -3412,10 +3421,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>12</v>
@@ -3424,22 +3433,22 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>184</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="22"/>
@@ -3458,7 +3467,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>12</v>
@@ -3467,22 +3476,22 @@
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="22"/>
@@ -3498,34 +3507,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="22"/>
@@ -3541,10 +3550,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>12</v>
@@ -3553,22 +3562,22 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="22"/>
@@ -3584,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>12</v>
@@ -3596,22 +3605,22 @@
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="22"/>
@@ -3627,10 +3636,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>12</v>
@@ -3639,22 +3648,22 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -3670,34 +3679,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -3713,10 +3722,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>12</v>
@@ -3725,22 +3734,22 @@
         <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="22"/>
@@ -3756,10 +3765,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>12</v>
@@ -3768,22 +3777,22 @@
         <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="22"/>
@@ -3799,10 +3808,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>12</v>
@@ -3811,22 +3820,22 @@
         <v>37</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="22"/>
@@ -3945,34 +3954,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="22"/>
@@ -3988,34 +3997,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="22"/>
@@ -4031,34 +4040,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="22"/>
@@ -4074,34 +4083,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="22"/>
@@ -4117,34 +4126,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="25"/>
@@ -4162,34 +4171,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="25"/>
@@ -4207,34 +4216,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="25"/>
@@ -4252,34 +4261,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="25"/>
@@ -4297,34 +4306,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -4342,34 +4351,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -4390,7 +4399,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>36</v>
@@ -4399,22 +4408,22 @@
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -4435,7 +4444,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>36</v>
@@ -4444,22 +4453,22 @@
         <v>37</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -4477,34 +4486,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="25"/>
@@ -4522,34 +4531,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="25"/>
@@ -4567,34 +4576,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="22"/>
@@ -4612,34 +4621,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="22"/>
@@ -4660,7 +4669,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>36</v>
@@ -4669,22 +4678,22 @@
         <v>37</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -4705,7 +4714,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>36</v>
@@ -4714,22 +4723,22 @@
         <v>37</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
@@ -4865,7 +4874,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
@@ -4877,10 +4886,10 @@
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -4904,31 +4913,31 @@
         <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -4949,10 +4958,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -4961,22 +4970,22 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -4988,7 +4997,7 @@
       </c>
       <c r="R4" s="14"/>
       <c r="Z4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="75" spans="1:26">
@@ -4997,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>35</v>
@@ -5009,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
@@ -5021,10 +5030,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -5036,7 +5045,7 @@
       </c>
       <c r="R5" s="14"/>
       <c r="Z5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="75" spans="1:18">
@@ -5045,7 +5054,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
@@ -5057,7 +5066,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
@@ -5066,13 +5075,13 @@
         <v>40</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="19"/>
@@ -5090,34 +5099,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
@@ -5135,7 +5144,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
@@ -5147,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
@@ -5156,13 +5165,13 @@
         <v>40</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
@@ -5180,10 +5189,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -5192,22 +5201,22 @@
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="19"/>
@@ -5225,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
@@ -5237,22 +5246,22 @@
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -5270,34 +5279,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -5315,7 +5324,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
@@ -5327,22 +5336,22 @@
         <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="22"/>
@@ -5360,10 +5369,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -5372,22 +5381,22 @@
         <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="22"/>
@@ -5508,34 +5517,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="25"/>
@@ -5553,34 +5562,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="25"/>
@@ -5598,34 +5607,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="25"/>
@@ -5643,34 +5652,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="25"/>
@@ -5691,31 +5700,31 @@
         <v>34</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="25"/>
@@ -5733,34 +5742,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="25"/>
@@ -5778,34 +5787,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="25"/>
@@ -5823,34 +5832,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="25"/>
@@ -5868,34 +5877,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="25"/>
@@ -5913,34 +5922,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="25"/>
@@ -6064,10 +6073,10 @@
         <v>34</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>37</v>
@@ -6079,16 +6088,16 @@
         <v>39</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="19"/>
@@ -6106,13 +6115,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>37</v>
@@ -6124,16 +6133,16 @@
         <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="19"/>
@@ -6154,10 +6163,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>37</v>
@@ -6169,16 +6178,16 @@
         <v>39</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="19"/>
@@ -6196,13 +6205,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>37</v>
@@ -6214,16 +6223,16 @@
         <v>39</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="21"/>
@@ -6244,10 +6253,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>37</v>
@@ -6259,16 +6268,16 @@
         <v>39</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="19"/>
@@ -6294,10 +6303,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.9809523809524" defaultRowHeight="15"/>
@@ -6309,7 +6318,7 @@
     <col min="5" max="5" width="14.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="42.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="24.6952380952381" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="52.4285714285714" customWidth="1"/>
     <col min="11" max="11" width="36.1238095238095" customWidth="1"/>
@@ -6418,7 +6427,9 @@
       <c r="K2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -6466,8 +6477,12 @@
       <c r="K3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
@@ -6481,14 +6496,14 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="45" spans="1:26">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A14" si="0">+A3+1</f>
+        <f t="shared" ref="A4:A16" si="0">+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>36</v>
@@ -6497,13 +6512,13 @@
         <v>37</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
@@ -6514,8 +6529,12 @@
       <c r="K4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -6533,25 +6552,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>41</v>
@@ -6562,8 +6581,12 @@
       <c r="K5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -6572,7 +6595,7 @@
       </c>
       <c r="R5" s="14"/>
       <c r="Z5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="45" spans="1:26">
@@ -6581,7 +6604,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
@@ -6590,13 +6613,13 @@
         <v>36</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>40</v>
@@ -6610,8 +6633,12 @@
       <c r="K6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -6620,7 +6647,7 @@
       </c>
       <c r="R6" s="14"/>
       <c r="Z6" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="75" spans="1:18">
@@ -6629,19 +6656,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>39</v>
@@ -6650,15 +6677,17 @@
         <v>40</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -6674,36 +6703,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="E8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
@@ -6719,19 +6750,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>39</v>
@@ -6740,15 +6771,17 @@
         <v>40</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
@@ -6764,37 +6797,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J10" s="24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -6809,19 +6846,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -6833,12 +6870,14 @@
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M11" s="22"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -6854,36 +6893,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M12" s="22"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
@@ -6899,19 +6940,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -6923,12 +6964,14 @@
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M13" s="22"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -6944,36 +6987,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M14" s="22"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -6983,99 +7028,9 @@
       </c>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" s="23" customFormat="1" ht="60" spans="1:18">
-      <c r="A15" s="6">
-        <f>+A14+1</f>
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" s="23" customFormat="1" ht="60" spans="1:18">
-      <c r="A16" s="6">
-        <f>+A15+1</f>
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" s="25"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L13 L14 L2:L3 L5:L6 L7:L8 L9:L10 L11:L12 L15:L16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L13 L14 L2:L3 L5:L6 L7:L8 L9:L10 L11:L12">
       <formula1>$Z$1:$Z$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -7089,8 +7044,8 @@
   <sheetPr/>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.9809523809524" defaultRowHeight="15"/>
@@ -7206,13 +7161,17 @@
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
@@ -7233,7 +7192,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>36</v>
@@ -7242,24 +7201,26 @@
         <v>4</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -7278,10 +7239,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>36</v>
@@ -7290,24 +7251,26 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -7317,7 +7280,7 @@
       </c>
       <c r="R4" s="14"/>
       <c r="Z4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="60" spans="1:26">
@@ -7326,7 +7289,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>35</v>
@@ -7350,12 +7313,14 @@
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -7365,7 +7330,7 @@
       </c>
       <c r="R5" s="14"/>
       <c r="Z5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="75" spans="1:18">
@@ -7374,19 +7339,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
@@ -7395,15 +7360,17 @@
         <v>40</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -7419,34 +7386,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
@@ -7464,19 +7431,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
@@ -7485,13 +7452,13 @@
         <v>40</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
@@ -7509,34 +7476,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="19"/>
@@ -7554,34 +7521,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -7599,34 +7566,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -7644,34 +7611,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="22"/>
@@ -7689,34 +7656,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="22"/>
@@ -7861,10 +7828,10 @@
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -7888,7 +7855,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>36</v>
@@ -7897,22 +7864,22 @@
         <v>5</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -7933,10 +7900,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>36</v>
@@ -7945,22 +7912,22 @@
         <v>5</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -7972,7 +7939,7 @@
       </c>
       <c r="R4" s="14"/>
       <c r="Z4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="60" spans="1:26">
@@ -7981,7 +7948,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>35</v>
@@ -8005,10 +7972,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -8020,7 +7987,7 @@
       </c>
       <c r="R5" s="14"/>
       <c r="Z5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="60" spans="1:18">
@@ -8029,19 +7996,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
@@ -8050,13 +8017,13 @@
         <v>40</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="19"/>
@@ -8074,34 +8041,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
@@ -8119,19 +8086,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
@@ -8140,13 +8107,13 @@
         <v>40</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J8" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
@@ -8164,34 +8131,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="19"/>
@@ -8209,34 +8176,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -8254,34 +8221,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -8299,34 +8266,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="22"/>
@@ -8344,34 +8311,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="22"/>
@@ -8504,22 +8471,22 @@
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -8543,31 +8510,31 @@
         <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -8588,10 +8555,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>36</v>
@@ -8600,22 +8567,22 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -8627,7 +8594,7 @@
       </c>
       <c r="R4" s="14"/>
       <c r="Z4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="75" spans="1:26">
@@ -8636,7 +8603,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>35</v>
@@ -8648,22 +8615,22 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -8675,7 +8642,7 @@
       </c>
       <c r="R5" s="14"/>
       <c r="Z5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="60" spans="1:18">
@@ -8684,34 +8651,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="19"/>
@@ -8729,34 +8696,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
@@ -8774,34 +8741,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
@@ -8819,34 +8786,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="19"/>
@@ -8864,34 +8831,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -8909,34 +8876,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -8954,34 +8921,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="22"/>
@@ -8999,34 +8966,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="22"/>
@@ -9095,7 +9062,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>19</v>
@@ -9157,7 +9124,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>36</v>
@@ -9178,10 +9145,10 @@
         <v>41</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -9205,34 +9172,34 @@
         <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -9253,13 +9220,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>36</v>
@@ -9268,22 +9235,22 @@
         <v>4</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -9295,7 +9262,7 @@
       </c>
       <c r="S4" s="14"/>
       <c r="AA4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="90" spans="1:27">
@@ -9304,13 +9271,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>36</v>
@@ -9319,7 +9286,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>39</v>
@@ -9331,10 +9298,10 @@
         <v>41</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -9346,7 +9313,7 @@
       </c>
       <c r="S5" s="14"/>
       <c r="AA5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="90" spans="1:19">
@@ -9355,22 +9322,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>39</v>
@@ -9379,13 +9346,13 @@
         <v>40</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="19"/>
@@ -9403,37 +9370,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="K7" s="24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="19"/>
@@ -9451,22 +9418,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>39</v>
@@ -9475,13 +9442,13 @@
         <v>40</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="19"/>
@@ -9499,37 +9466,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="K9" s="24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="19"/>
@@ -9547,37 +9514,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="22"/>
@@ -9595,37 +9562,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="22"/>
@@ -9643,37 +9610,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="22"/>
@@ -9691,37 +9658,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="22"/>
@@ -9848,13 +9815,13 @@
         <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
@@ -9866,10 +9833,10 @@
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -9891,31 +9858,31 @@
         <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -9934,34 +9901,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -9971,7 +9938,7 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="Z4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="90" spans="1:26">
@@ -9980,19 +9947,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
@@ -10004,10 +9971,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -10017,7 +9984,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="Z5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="90" spans="1:18">
@@ -10026,19 +9993,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
@@ -10047,13 +10014,13 @@
         <v>40</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="19"/>
@@ -10069,34 +10036,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
@@ -10112,19 +10079,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
@@ -10133,13 +10100,13 @@
         <v>40</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
@@ -10155,34 +10122,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="19"/>
@@ -10198,34 +10165,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -10241,34 +10208,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -10284,34 +10251,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="22"/>
@@ -10327,34 +10294,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="22"/>
@@ -10473,34 +10440,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="22"/>
@@ -10516,34 +10483,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="22"/>
@@ -10559,34 +10526,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="22"/>
@@ -10602,34 +10569,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="22"/>
@@ -10645,34 +10612,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="22"/>
@@ -10688,34 +10655,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="22"/>
@@ -10731,34 +10698,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="22"/>
@@ -10774,34 +10741,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="22"/>
@@ -10817,13 +10784,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>4</v>
@@ -10835,16 +10802,16 @@
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -10860,34 +10827,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -11006,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>35</v>
@@ -11018,22 +10985,22 @@
         <v>5</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="22"/>
@@ -11049,10 +11016,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>10</v>
@@ -11061,22 +11028,22 @@
         <v>5</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="22"/>
@@ -11092,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>35</v>
@@ -11104,22 +11071,22 @@
         <v>5</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="22"/>
@@ -11135,10 +11102,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>10</v>
@@ -11147,22 +11114,22 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="22"/>
@@ -11178,34 +11145,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="22"/>
@@ -11221,34 +11188,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="22"/>
@@ -11264,34 +11231,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="22"/>
@@ -11307,34 +11274,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="22"/>
@@ -11350,34 +11317,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="22"/>
@@ -11393,34 +11360,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="22"/>
@@ -11436,34 +11403,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="22"/>
@@ -11479,34 +11446,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="22"/>
